--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1079.74</v>
+        <v>193125.82</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>215.95</v>
+        <v>12875.05</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.66</v>
+        <v>334.86</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.8</v>
+        <v>40.67</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552.9400000000001</v>
+        <v>549.4</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.65000000000001</v>
+        <v>67.67</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,107 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.69</v>
+        <v>40.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>643.8099999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.18000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7949.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>225.21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>857.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>145714.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21649.47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14886.29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,99 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193125.82</v>
-      </c>
+        <v>67.67</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12875.05</v>
+        <v>334.86</v>
+      </c>
+      <c r="C3" t="n">
+        <v>354.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.86</v>
+        <v>40.67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.67</v>
+        <v>857.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>884.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549.4</v>
+        <v>145714.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>145482.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.67</v>
+        <v>81.18000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.73</v>
+        <v>7949.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8088.84</v>
       </c>
     </row>
     <row r="9">
@@ -519,95 +543,125 @@
       <c r="B9" t="n">
         <v>643.8099999999999</v>
       </c>
+      <c r="C9" t="n">
+        <v>659.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.61</v>
+        <v>21649.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20820.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.18000000000001</v>
+        <v>44.61</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7949.09</v>
+        <v>549.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>536.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.21</v>
+        <v>40.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>857.7</v>
+        <v>40.73</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145714.4</v>
+        <v>225.21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>223.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21649.47</v>
+        <v>14886.29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15283.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14886.29</v>
+        <v>12875.05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13756.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.73</v>
+        <v>193125.82</v>
+      </c>
+      <c r="C18" t="n">
+        <v>192586.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,165 +439,229 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>192546.23</v>
+          <t>Adcap Wise Capital Growth</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>3111.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13753.3</v>
+        <v>354.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>340.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.18</v>
+        <v>1.45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.45</v>
+        <v>43.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.27</v>
+        <v>884.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>897.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4</v>
+        <v>145482.38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>147711.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145482.38</v>
+        <v>659.05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>673.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>659.05</v>
+        <v>45.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.28</v>
+        <v>81.97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>83.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.97</v>
+        <v>8088.84</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8186.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8088.84</v>
+        <v>20820.27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20758.71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20820.27</v>
+        <v>536.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>560.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>536.6</v>
+        <v>41.35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.35</v>
+        <v>223.61</v>
+      </c>
+      <c r="C15" t="n">
+        <v>222.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>223.61</v>
+        <v>15283.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16318.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15283.58</v>
+        <v>13753.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13266.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>192546.23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>199003.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -530,9 +530,7 @@
       <c r="B8" t="n">
         <v>659.05</v>
       </c>
-      <c r="C8" t="n">
-        <v>673.52</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -543,9 +541,7 @@
       <c r="B9" t="n">
         <v>45.28</v>
       </c>
-      <c r="C9" t="n">
-        <v>45.63</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -556,9 +552,7 @@
       <c r="B10" t="n">
         <v>81.97</v>
       </c>
-      <c r="C10" t="n">
-        <v>83.12</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -569,9 +563,7 @@
       <c r="B11" t="n">
         <v>8088.84</v>
       </c>
-      <c r="C11" t="n">
-        <v>8186.67</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -582,9 +574,7 @@
       <c r="B12" t="n">
         <v>20820.27</v>
       </c>
-      <c r="C12" t="n">
-        <v>20758.71</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -648,7 +638,7 @@
         <v>13753.3</v>
       </c>
       <c r="C17" t="n">
-        <v>13266.9</v>
+        <v>16925.58</v>
       </c>
     </row>
     <row r="18">
@@ -661,7 +651,7 @@
         <v>192546.23</v>
       </c>
       <c r="C18" t="n">
-        <v>199003.48</v>
+        <v>169255.83</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,504 +436,288 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Alpha Acciones</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>255.48</v>
+      </c>
       <c r="C2" t="n">
-        <v>3111.28</v>
+        <v>251.88</v>
       </c>
       <c r="D2" t="n">
-        <v>2833.96</v>
+        <v>240.72</v>
       </c>
       <c r="E2" t="n">
-        <v>2994.9</v>
+        <v>257.45</v>
       </c>
       <c r="F2" t="n">
-        <v>24549.21</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>258.55</v>
+      </c>
+      <c r="G2" t="n">
+        <v>264.57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.18</v>
+        <v>73.48</v>
       </c>
       <c r="C3" t="n">
-        <v>340.06</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>320.51</v>
+        <v>72.84</v>
       </c>
       <c r="E3" t="n">
-        <v>350.68</v>
+        <v>40.77</v>
       </c>
       <c r="F3" t="n">
-        <v>344.57</v>
+        <v>45.11</v>
       </c>
       <c r="G3" t="n">
-        <v>338.58</v>
-      </c>
-      <c r="H3" t="n">
-        <v>352.45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>349.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>348.83</v>
-      </c>
-      <c r="K3" t="n">
-        <v>338.94</v>
-      </c>
-      <c r="L3" t="n">
-        <v>261.26</v>
-      </c>
-      <c r="M3" t="n">
-        <v>255.48</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.45</v>
+        <v>852.28</v>
       </c>
       <c r="C4" t="n">
-        <v>7.44</v>
+        <v>858.95</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95</v>
+        <v>825.52</v>
       </c>
       <c r="E4" t="n">
-        <v>20.16</v>
+        <v>864.99</v>
       </c>
       <c r="F4" t="n">
-        <v>19.84</v>
+        <v>882.76</v>
       </c>
       <c r="G4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>847.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.27</v>
+        <v>146099.39</v>
       </c>
       <c r="C5" t="n">
-        <v>45.18</v>
+        <v>143443.47</v>
       </c>
       <c r="D5" t="n">
-        <v>39.63</v>
+        <v>138877.5</v>
       </c>
       <c r="E5" t="n">
-        <v>40.06</v>
+        <v>146752.77</v>
       </c>
       <c r="F5" t="n">
-        <v>39.04</v>
+        <v>152610.08</v>
       </c>
       <c r="G5" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="H5" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42.07</v>
-      </c>
-      <c r="J5" t="n">
-        <v>42.24</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39.04</v>
-      </c>
-      <c r="L5" t="n">
-        <v>71.08</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73.48</v>
+        <v>149018.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>884.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>897.27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>853.16</v>
-      </c>
+          <t>Argenfunds</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>885.4299999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>897.83</v>
-      </c>
-      <c r="G6" t="n">
-        <v>874.46</v>
-      </c>
-      <c r="H6" t="n">
-        <v>862.41</v>
-      </c>
-      <c r="I6" t="n">
-        <v>849.64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>863.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>852.9299999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>866.14</v>
-      </c>
-      <c r="M6" t="n">
-        <v>852.28</v>
-      </c>
+        <v>3.97</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145482.38</v>
+        <v>555.91</v>
       </c>
       <c r="C7" t="n">
-        <v>147711.95</v>
+        <v>565.9299999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>138125.99</v>
+        <v>546.61</v>
       </c>
       <c r="E7" t="n">
-        <v>142610.73</v>
+        <v>578.4400000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>145029.62</v>
+        <v>580.92</v>
       </c>
       <c r="G7" t="n">
-        <v>145389.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>144978.91</v>
-      </c>
-      <c r="I7" t="n">
-        <v>143685.77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>144834.02</v>
-      </c>
-      <c r="K7" t="n">
-        <v>145315.04</v>
-      </c>
-      <c r="L7" t="n">
-        <v>146741.99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>146099.39</v>
+        <v>574.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>659.05</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>45.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.24</v>
+      </c>
       <c r="D8" t="n">
-        <v>631</v>
+        <v>43.7</v>
       </c>
       <c r="E8" t="n">
-        <v>563.9</v>
+        <v>45.73</v>
       </c>
       <c r="F8" t="n">
-        <v>570.78</v>
+        <v>47.05</v>
       </c>
       <c r="G8" t="n">
-        <v>568.0700000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>558.73</v>
-      </c>
-      <c r="I8" t="n">
-        <v>559.1799999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>566.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>562.41</v>
-      </c>
-      <c r="L8" t="n">
-        <v>568.61</v>
-      </c>
-      <c r="M8" t="n">
-        <v>555.91</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.28</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>82.16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>82.05</v>
+      </c>
       <c r="D9" t="n">
-        <v>44.13</v>
+        <v>78.94</v>
       </c>
       <c r="E9" t="n">
-        <v>45.54</v>
+        <v>82.84</v>
       </c>
       <c r="F9" t="n">
-        <v>46.07</v>
+        <v>85.38</v>
       </c>
       <c r="G9" t="n">
-        <v>45.98</v>
-      </c>
-      <c r="H9" t="n">
-        <v>45.32</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="J9" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="K9" t="n">
-        <v>45.29</v>
-      </c>
-      <c r="L9" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>45.35</v>
+        <v>83.45999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>7537.65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7543.5</v>
+      </c>
       <c r="D10" t="n">
-        <v>80.23</v>
+        <v>7230.76</v>
       </c>
       <c r="E10" t="n">
-        <v>82.23</v>
+        <v>7563.88</v>
       </c>
       <c r="F10" t="n">
-        <v>83.7</v>
+        <v>7866.82</v>
       </c>
       <c r="G10" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>82.79000000000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>82.31</v>
-      </c>
-      <c r="K10" t="n">
-        <v>82.58</v>
-      </c>
-      <c r="L10" t="n">
-        <v>84.11</v>
-      </c>
-      <c r="M10" t="n">
-        <v>82.16</v>
+        <v>7677.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8088.84</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>93270.58</v>
+      </c>
+      <c r="C11" t="n">
+        <v>93281.36</v>
+      </c>
       <c r="D11" t="n">
-        <v>7863.5</v>
+        <v>101161.24</v>
       </c>
       <c r="E11" t="n">
-        <v>7609.42</v>
+        <v>108543.44</v>
       </c>
       <c r="F11" t="n">
-        <v>7629.43</v>
+        <v>112011.66</v>
       </c>
       <c r="G11" t="n">
-        <v>7636.89</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7607.44</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7534.67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7559.18</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7529.91</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7652.05</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7537.65</v>
+        <v>107574.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20820.27</v>
-      </c>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>30002.96</v>
-      </c>
-      <c r="E12" t="n">
-        <v>86122.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>88591.67</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>91906.05</v>
-      </c>
-      <c r="H12" t="n">
-        <v>92399.82000000001</v>
-      </c>
-      <c r="I12" t="n">
-        <v>91557.09</v>
-      </c>
-      <c r="J12" t="n">
-        <v>92523.59</v>
-      </c>
-      <c r="K12" t="n">
-        <v>94449.17999999999</v>
-      </c>
-      <c r="L12" t="n">
-        <v>93644.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>93270.58</v>
+        <v>1851.45</v>
       </c>
     </row>
     <row r="13">
@@ -943,229 +727,97 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.6</v>
+        <v>533.27</v>
       </c>
       <c r="C13" t="n">
-        <v>560.14</v>
+        <v>523.28</v>
       </c>
       <c r="D13" t="n">
-        <v>490.67</v>
+        <v>518.5</v>
       </c>
       <c r="E13" t="n">
-        <v>525.78</v>
+        <v>543.76</v>
       </c>
       <c r="F13" t="n">
-        <v>527.5599999999999</v>
+        <v>566.4400000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>527.74</v>
-      </c>
-      <c r="H13" t="n">
-        <v>515.08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>506.57</v>
-      </c>
-      <c r="J13" t="n">
-        <v>513.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>519.39</v>
-      </c>
-      <c r="L13" t="n">
-        <v>533.79</v>
-      </c>
-      <c r="M13" t="n">
-        <v>533.27</v>
+        <v>533.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.35</v>
+        <v>221.94</v>
       </c>
       <c r="C14" t="n">
-        <v>41.82</v>
+        <v>223.09</v>
       </c>
       <c r="D14" t="n">
-        <v>40.52</v>
+        <v>215.39</v>
       </c>
       <c r="E14" t="n">
-        <v>41.8</v>
+        <v>225.22</v>
       </c>
       <c r="F14" t="n">
-        <v>41.77</v>
+        <v>233.22</v>
       </c>
       <c r="G14" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="H14" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>227.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.61</v>
+        <v>22684.32</v>
       </c>
       <c r="C15" t="n">
-        <v>222.26</v>
+        <v>22444.59</v>
       </c>
       <c r="D15" t="n">
-        <v>215.84</v>
+        <v>22710.16</v>
       </c>
       <c r="E15" t="n">
-        <v>225.48</v>
+        <v>22125.27</v>
       </c>
       <c r="F15" t="n">
-        <v>225.93</v>
+        <v>25017.09</v>
       </c>
       <c r="G15" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>220.54</v>
-      </c>
-      <c r="I15" t="n">
-        <v>223.02</v>
-      </c>
-      <c r="J15" t="n">
-        <v>225.12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>219.77</v>
-      </c>
-      <c r="L15" t="n">
-        <v>224.19</v>
-      </c>
-      <c r="M15" t="n">
-        <v>221.94</v>
+        <v>22395.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15283.58</v>
+        <v>249527.49</v>
       </c>
       <c r="C16" t="n">
-        <v>16318.43</v>
+        <v>246890.49</v>
       </c>
       <c r="D16" t="n">
-        <v>15398.11</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>13753.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>16925.58</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13130.21</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17294.17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19185.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19053.96</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19056.16</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18884.24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20635.33</v>
-      </c>
-      <c r="K17" t="n">
-        <v>22723.13</v>
-      </c>
-      <c r="L17" t="n">
-        <v>22790.35</v>
-      </c>
-      <c r="M17" t="n">
-        <v>22684.32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>192546.23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>169255.83</v>
-      </c>
-      <c r="D18" t="n">
-        <v>196953.16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>242118.31</v>
-      </c>
-      <c r="F18" t="n">
-        <v>268597.02</v>
-      </c>
-      <c r="G18" t="n">
-        <v>247701.43</v>
-      </c>
-      <c r="H18" t="n">
-        <v>247730.02</v>
-      </c>
-      <c r="I18" t="n">
-        <v>245495.15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>247623.99</v>
-      </c>
-      <c r="K18" t="n">
-        <v>249954.48</v>
-      </c>
-      <c r="L18" t="n">
-        <v>250693.87</v>
-      </c>
-      <c r="M18" t="n">
-        <v>249527.49</v>
+        <v>249811.72</v>
+      </c>
+      <c r="E16" t="n">
+        <v>265503.26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>275187.99</v>
+      </c>
+      <c r="G16" t="n">
+        <v>268743.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,288 +436,504 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>255.48</v>
-      </c>
+          <t>Adcap Wise Capital Growth</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>251.88</v>
+        <v>3111.28</v>
       </c>
       <c r="D2" t="n">
-        <v>240.72</v>
+        <v>2833.96</v>
       </c>
       <c r="E2" t="n">
-        <v>257.45</v>
+        <v>2994.9</v>
       </c>
       <c r="F2" t="n">
-        <v>258.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>264.57</v>
-      </c>
+        <v>24549.21</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.48</v>
+        <v>354.18</v>
       </c>
       <c r="C3" t="n">
-        <v>71.73999999999999</v>
+        <v>340.06</v>
       </c>
       <c r="D3" t="n">
-        <v>72.84</v>
+        <v>320.51</v>
       </c>
       <c r="E3" t="n">
-        <v>40.77</v>
+        <v>350.68</v>
       </c>
       <c r="F3" t="n">
-        <v>45.11</v>
+        <v>344.57</v>
       </c>
       <c r="G3" t="n">
-        <v>44.99</v>
+        <v>338.58</v>
+      </c>
+      <c r="H3" t="n">
+        <v>352.45</v>
+      </c>
+      <c r="I3" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>348.83</v>
+      </c>
+      <c r="K3" t="n">
+        <v>338.94</v>
+      </c>
+      <c r="L3" t="n">
+        <v>261.26</v>
+      </c>
+      <c r="M3" t="n">
+        <v>255.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>852.28</v>
+        <v>1.45</v>
       </c>
       <c r="C4" t="n">
-        <v>858.95</v>
+        <v>7.44</v>
       </c>
       <c r="D4" t="n">
-        <v>825.52</v>
+        <v>12.95</v>
       </c>
       <c r="E4" t="n">
-        <v>864.99</v>
+        <v>20.16</v>
       </c>
       <c r="F4" t="n">
-        <v>882.76</v>
+        <v>19.84</v>
       </c>
       <c r="G4" t="n">
-        <v>847.11</v>
-      </c>
+        <v>20.21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146099.39</v>
+        <v>43.27</v>
       </c>
       <c r="C5" t="n">
-        <v>143443.47</v>
+        <v>45.18</v>
       </c>
       <c r="D5" t="n">
-        <v>138877.5</v>
+        <v>39.63</v>
       </c>
       <c r="E5" t="n">
-        <v>146752.77</v>
+        <v>40.06</v>
       </c>
       <c r="F5" t="n">
-        <v>152610.08</v>
+        <v>39.04</v>
       </c>
       <c r="G5" t="n">
-        <v>149018.91</v>
+        <v>42.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>45.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42.24</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39.04</v>
+      </c>
+      <c r="L5" t="n">
+        <v>71.08</v>
+      </c>
+      <c r="M5" t="n">
+        <v>73.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>884.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>897.27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>853.16</v>
+      </c>
       <c r="E6" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>885.4299999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>897.83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>874.46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>862.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>849.64</v>
+      </c>
+      <c r="J6" t="n">
+        <v>863.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>852.9299999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>866.14</v>
+      </c>
+      <c r="M6" t="n">
+        <v>852.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.91</v>
+        <v>145482.38</v>
       </c>
       <c r="C7" t="n">
-        <v>565.9299999999999</v>
+        <v>147711.95</v>
       </c>
       <c r="D7" t="n">
-        <v>546.61</v>
+        <v>138125.99</v>
       </c>
       <c r="E7" t="n">
-        <v>578.4400000000001</v>
+        <v>142610.73</v>
       </c>
       <c r="F7" t="n">
-        <v>580.92</v>
+        <v>145029.62</v>
       </c>
       <c r="G7" t="n">
-        <v>574.95</v>
+        <v>145389.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>144978.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>143685.77</v>
+      </c>
+      <c r="J7" t="n">
+        <v>144834.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>145315.04</v>
+      </c>
+      <c r="L7" t="n">
+        <v>146741.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>146099.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.35</v>
-      </c>
-      <c r="C8" t="n">
-        <v>45.24</v>
-      </c>
+        <v>659.05</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>43.7</v>
+        <v>631</v>
       </c>
       <c r="E8" t="n">
-        <v>45.73</v>
+        <v>563.9</v>
       </c>
       <c r="F8" t="n">
-        <v>47.05</v>
+        <v>570.78</v>
       </c>
       <c r="G8" t="n">
-        <v>45.6</v>
+        <v>568.0700000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>558.73</v>
+      </c>
+      <c r="I8" t="n">
+        <v>559.1799999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>566.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>562.41</v>
+      </c>
+      <c r="L8" t="n">
+        <v>568.61</v>
+      </c>
+      <c r="M8" t="n">
+        <v>555.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>82.05</v>
-      </c>
+        <v>45.28</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>78.94</v>
+        <v>44.13</v>
       </c>
       <c r="E9" t="n">
-        <v>82.84</v>
+        <v>45.54</v>
       </c>
       <c r="F9" t="n">
-        <v>85.38</v>
+        <v>46.07</v>
       </c>
       <c r="G9" t="n">
-        <v>83.45999999999999</v>
+        <v>45.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>45.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45.07</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="L9" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>45.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7537.65</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7543.5</v>
-      </c>
+        <v>81.97</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>7230.76</v>
+        <v>80.23</v>
       </c>
       <c r="E10" t="n">
-        <v>7563.88</v>
+        <v>82.23</v>
       </c>
       <c r="F10" t="n">
-        <v>7866.82</v>
+        <v>83.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7677.5</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82.58</v>
+      </c>
+      <c r="L10" t="n">
+        <v>84.11</v>
+      </c>
+      <c r="M10" t="n">
+        <v>82.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93270.58</v>
-      </c>
-      <c r="C11" t="n">
-        <v>93281.36</v>
-      </c>
+        <v>8088.84</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>101161.24</v>
+        <v>7863.5</v>
       </c>
       <c r="E11" t="n">
-        <v>108543.44</v>
+        <v>7609.42</v>
       </c>
       <c r="F11" t="n">
-        <v>112011.66</v>
+        <v>7629.43</v>
       </c>
       <c r="G11" t="n">
-        <v>107574.56</v>
+        <v>7636.89</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7607.44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7534.67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7559.18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7529.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7652.05</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7537.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20820.27</v>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>30002.96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>86122.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88591.67</v>
+      </c>
       <c r="G12" t="n">
-        <v>1851.45</v>
+        <v>91906.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>92399.82000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>91557.09</v>
+      </c>
+      <c r="J12" t="n">
+        <v>92523.59</v>
+      </c>
+      <c r="K12" t="n">
+        <v>94449.17999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>93644.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>93270.58</v>
       </c>
     </row>
     <row r="13">
@@ -727,97 +943,229 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>536.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>560.14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>490.67</v>
+      </c>
+      <c r="E13" t="n">
+        <v>525.78</v>
+      </c>
+      <c r="F13" t="n">
+        <v>527.5599999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>527.74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>515.08</v>
+      </c>
+      <c r="I13" t="n">
+        <v>506.57</v>
+      </c>
+      <c r="J13" t="n">
+        <v>513.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>519.39</v>
+      </c>
+      <c r="L13" t="n">
+        <v>533.79</v>
+      </c>
+      <c r="M13" t="n">
         <v>533.27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>523.28</v>
-      </c>
-      <c r="D13" t="n">
-        <v>518.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>543.76</v>
-      </c>
-      <c r="F13" t="n">
-        <v>566.4400000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>533.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>221.94</v>
+        <v>41.35</v>
       </c>
       <c r="C14" t="n">
-        <v>223.09</v>
+        <v>41.82</v>
       </c>
       <c r="D14" t="n">
-        <v>215.39</v>
+        <v>40.52</v>
       </c>
       <c r="E14" t="n">
-        <v>225.22</v>
+        <v>41.8</v>
       </c>
       <c r="F14" t="n">
-        <v>233.22</v>
+        <v>41.77</v>
       </c>
       <c r="G14" t="n">
-        <v>227.12</v>
-      </c>
+        <v>41.99</v>
+      </c>
+      <c r="H14" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22684.32</v>
+        <v>223.61</v>
       </c>
       <c r="C15" t="n">
-        <v>22444.59</v>
+        <v>222.26</v>
       </c>
       <c r="D15" t="n">
-        <v>22710.16</v>
+        <v>215.84</v>
       </c>
       <c r="E15" t="n">
-        <v>22125.27</v>
+        <v>225.48</v>
       </c>
       <c r="F15" t="n">
-        <v>25017.09</v>
+        <v>225.93</v>
       </c>
       <c r="G15" t="n">
-        <v>22395.31</v>
+        <v>226.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>220.54</v>
+      </c>
+      <c r="I15" t="n">
+        <v>223.02</v>
+      </c>
+      <c r="J15" t="n">
+        <v>225.12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>219.77</v>
+      </c>
+      <c r="L15" t="n">
+        <v>224.19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>221.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15283.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16318.43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15398.11</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13753.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16925.58</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13130.21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17294.17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19185.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19053.96</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19056.16</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18884.24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20635.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22723.13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22790.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>22684.32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
+        <v>192546.23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>169255.83</v>
+      </c>
+      <c r="D18" t="n">
+        <v>196953.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>242118.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>268597.02</v>
+      </c>
+      <c r="G18" t="n">
+        <v>247701.43</v>
+      </c>
+      <c r="H18" t="n">
+        <v>247730.02</v>
+      </c>
+      <c r="I18" t="n">
+        <v>245495.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>247623.99</v>
+      </c>
+      <c r="K18" t="n">
+        <v>249954.48</v>
+      </c>
+      <c r="L18" t="n">
+        <v>250693.87</v>
+      </c>
+      <c r="M18" t="n">
         <v>249527.49</v>
-      </c>
-      <c r="C16" t="n">
-        <v>246890.49</v>
-      </c>
-      <c r="D16" t="n">
-        <v>249811.72</v>
-      </c>
-      <c r="E16" t="n">
-        <v>265503.26</v>
-      </c>
-      <c r="F16" t="n">
-        <v>275187.99</v>
-      </c>
-      <c r="G16" t="n">
-        <v>268743.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,736 +436,2295 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>3111.28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2833.96</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2994.9</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24549.21</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2247.64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2180.2</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>354.18</v>
-      </c>
-      <c r="C3" t="n">
-        <v>340.06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>320.51</v>
-      </c>
-      <c r="E3" t="n">
-        <v>350.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>344.57</v>
-      </c>
-      <c r="G3" t="n">
-        <v>338.58</v>
-      </c>
+          <t>Adcap Balanceado V</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>352.45</v>
+        <v>14025.74</v>
       </c>
       <c r="I3" t="n">
-        <v>349.6</v>
+        <v>16269.28</v>
       </c>
       <c r="J3" t="n">
-        <v>348.83</v>
+        <v>24345.94</v>
       </c>
       <c r="K3" t="n">
-        <v>338.94</v>
+        <v>25455.21</v>
       </c>
       <c r="L3" t="n">
-        <v>261.26</v>
+        <v>25224.48</v>
       </c>
       <c r="M3" t="n">
-        <v>255.48</v>
-      </c>
+        <v>26310.94</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26037.81</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25801.58</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19.88</v>
-      </c>
+          <t>Adcap IOL Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>19.81</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45.18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40.06</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39.04</v>
-      </c>
-      <c r="G5" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="H5" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42.07</v>
-      </c>
-      <c r="J5" t="n">
-        <v>42.24</v>
-      </c>
+          <t>Adcap Wise</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>39.04</v>
+        <v>15927.05</v>
       </c>
       <c r="L5" t="n">
-        <v>71.08</v>
+        <v>15768.3</v>
       </c>
       <c r="M5" t="n">
-        <v>73.48</v>
-      </c>
+        <v>23282.27</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23031.63</v>
+      </c>
+      <c r="O5" t="n">
+        <v>22844.34</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>884.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>897.27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>853.16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>885.4299999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>897.83</v>
-      </c>
-      <c r="G6" t="n">
-        <v>874.46</v>
-      </c>
+          <t>Allaria Acciones</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>862.41</v>
+        <v>121.78</v>
       </c>
       <c r="I6" t="n">
-        <v>849.64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>863.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>852.9299999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>866.14</v>
-      </c>
-      <c r="M6" t="n">
-        <v>852.28</v>
-      </c>
+        <v>11.06</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145482.38</v>
+        <v>255.48</v>
       </c>
       <c r="C7" t="n">
-        <v>147711.95</v>
+        <v>251.88</v>
       </c>
       <c r="D7" t="n">
-        <v>138125.99</v>
+        <v>240.72</v>
       </c>
       <c r="E7" t="n">
-        <v>142610.73</v>
+        <v>257.45</v>
       </c>
       <c r="F7" t="n">
-        <v>145029.62</v>
+        <v>258.55</v>
       </c>
       <c r="G7" t="n">
-        <v>145389.25</v>
+        <v>264.57</v>
       </c>
       <c r="H7" t="n">
-        <v>144978.91</v>
+        <v>245.07</v>
       </c>
       <c r="I7" t="n">
-        <v>143685.77</v>
+        <v>1569.57</v>
       </c>
       <c r="J7" t="n">
-        <v>144834.02</v>
+        <v>1880.49</v>
       </c>
       <c r="K7" t="n">
-        <v>145315.04</v>
+        <v>1904.89</v>
       </c>
       <c r="L7" t="n">
-        <v>146741.99</v>
+        <v>1855.56</v>
       </c>
       <c r="M7" t="n">
-        <v>146099.39</v>
-      </c>
+        <v>1911.41</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1923.31</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1856.64</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>659.05</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>73.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71.73999999999999</v>
+      </c>
       <c r="D8" t="n">
-        <v>631</v>
+        <v>72.84</v>
       </c>
       <c r="E8" t="n">
-        <v>563.9</v>
+        <v>40.77</v>
       </c>
       <c r="F8" t="n">
-        <v>570.78</v>
+        <v>45.11</v>
       </c>
       <c r="G8" t="n">
-        <v>568.0700000000001</v>
+        <v>44.99</v>
       </c>
       <c r="H8" t="n">
-        <v>558.73</v>
+        <v>40.26</v>
       </c>
       <c r="I8" t="n">
-        <v>559.1799999999999</v>
+        <v>4247.64</v>
       </c>
       <c r="J8" t="n">
-        <v>566.8</v>
+        <v>5339.29</v>
       </c>
       <c r="K8" t="n">
-        <v>562.41</v>
+        <v>5299.6</v>
       </c>
       <c r="L8" t="n">
-        <v>568.61</v>
+        <v>5175.61</v>
       </c>
       <c r="M8" t="n">
-        <v>555.91</v>
-      </c>
+        <v>5391.64</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5320.08</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5216.76</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>45.28</v>
-      </c>
+          <t>Alpha Mercosur</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="E9" t="n">
-        <v>45.54</v>
-      </c>
-      <c r="F9" t="n">
-        <v>46.07</v>
-      </c>
-      <c r="G9" t="n">
-        <v>45.98</v>
-      </c>
-      <c r="H9" t="n">
-        <v>45.32</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>45.15</v>
+        <v>139.99</v>
       </c>
       <c r="J9" t="n">
-        <v>45.07</v>
+        <v>134.93</v>
       </c>
       <c r="K9" t="n">
-        <v>45.29</v>
+        <v>135.73</v>
       </c>
       <c r="L9" t="n">
-        <v>46.35</v>
+        <v>133.72</v>
       </c>
       <c r="M9" t="n">
-        <v>45.35</v>
-      </c>
+        <v>141.48</v>
+      </c>
+      <c r="N9" t="n">
+        <v>154.82</v>
+      </c>
+      <c r="O9" t="n">
+        <v>146.09</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>81.97</v>
-      </c>
+          <t>Alpha Recursos Naturales</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>80.23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>82.23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>82.79000000000001</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>81.95999999999999</v>
+        <v>861.24</v>
       </c>
       <c r="J10" t="n">
-        <v>82.31</v>
+        <v>852.27</v>
       </c>
       <c r="K10" t="n">
-        <v>82.58</v>
+        <v>843.63</v>
       </c>
       <c r="L10" t="n">
-        <v>84.11</v>
+        <v>841.48</v>
       </c>
       <c r="M10" t="n">
-        <v>82.16</v>
-      </c>
+        <v>879.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>862.12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>829.87</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8088.84</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>852.28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>858.95</v>
+      </c>
       <c r="D11" t="n">
-        <v>7863.5</v>
+        <v>825.52</v>
       </c>
       <c r="E11" t="n">
-        <v>7609.42</v>
+        <v>864.99</v>
       </c>
       <c r="F11" t="n">
-        <v>7629.43</v>
+        <v>882.76</v>
       </c>
       <c r="G11" t="n">
-        <v>7636.89</v>
+        <v>847.11</v>
       </c>
       <c r="H11" t="n">
-        <v>7607.44</v>
+        <v>821.1900000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>7534.67</v>
+        <v>860.48</v>
       </c>
       <c r="J11" t="n">
-        <v>7559.18</v>
+        <v>878.24</v>
       </c>
       <c r="K11" t="n">
-        <v>7529.91</v>
+        <v>867.77</v>
       </c>
       <c r="L11" t="n">
-        <v>7652.05</v>
+        <v>864.36</v>
       </c>
       <c r="M11" t="n">
-        <v>7537.65</v>
-      </c>
+        <v>890.74</v>
+      </c>
+      <c r="N11" t="n">
+        <v>890.87</v>
+      </c>
+      <c r="O11" t="n">
+        <v>892.67</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20820.27</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>146099.39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>143443.47</v>
+      </c>
       <c r="D12" t="n">
-        <v>30002.96</v>
+        <v>138877.5</v>
       </c>
       <c r="E12" t="n">
-        <v>86122.2</v>
+        <v>146752.77</v>
       </c>
       <c r="F12" t="n">
-        <v>88591.67</v>
+        <v>152610.08</v>
       </c>
       <c r="G12" t="n">
-        <v>91906.05</v>
+        <v>149018.91</v>
       </c>
       <c r="H12" t="n">
-        <v>92399.82000000001</v>
+        <v>146855.73</v>
       </c>
       <c r="I12" t="n">
-        <v>91557.09</v>
+        <v>144961.61</v>
       </c>
       <c r="J12" t="n">
-        <v>92523.59</v>
+        <v>145951.4</v>
       </c>
       <c r="K12" t="n">
-        <v>94449.17999999999</v>
+        <v>144884.7</v>
       </c>
       <c r="L12" t="n">
-        <v>93644.3</v>
+        <v>142799.11</v>
       </c>
       <c r="M12" t="n">
-        <v>93270.58</v>
+        <v>146010.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>145540.65</v>
+      </c>
+      <c r="O12" t="n">
+        <v>142701.09</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5084.29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5259.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5215.87</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4902.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4873.04</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4921.05</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4765.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4923.16</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4892.53</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5146.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4841.3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4845.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>536.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>560.14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>490.67</v>
-      </c>
+          <t>Argenfunds</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>525.78</v>
-      </c>
-      <c r="F13" t="n">
-        <v>527.5599999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>527.74</v>
-      </c>
+        <v>3.97</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>515.08</v>
+        <v>19.29</v>
       </c>
       <c r="I13" t="n">
-        <v>506.57</v>
-      </c>
-      <c r="J13" t="n">
-        <v>513.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>519.39</v>
-      </c>
-      <c r="L13" t="n">
-        <v>533.79</v>
-      </c>
-      <c r="M13" t="n">
-        <v>533.27</v>
-      </c>
+        <v>7.96</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>41.35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40.52</v>
-      </c>
-      <c r="E14" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="G14" t="n">
-        <v>41.99</v>
-      </c>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>41.5</v>
+        <v>11.93</v>
       </c>
       <c r="I14" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>13.61</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="N14" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="O14" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>223.61</v>
-      </c>
-      <c r="C15" t="n">
-        <v>222.26</v>
-      </c>
-      <c r="D15" t="n">
-        <v>215.84</v>
-      </c>
-      <c r="E15" t="n">
-        <v>225.48</v>
-      </c>
-      <c r="F15" t="n">
-        <v>225.93</v>
-      </c>
-      <c r="G15" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>220.54</v>
-      </c>
+          <t>Compass Crecimiento</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>223.02</v>
-      </c>
-      <c r="J15" t="n">
-        <v>225.12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>219.77</v>
-      </c>
-      <c r="L15" t="n">
-        <v>224.19</v>
-      </c>
-      <c r="M15" t="n">
-        <v>221.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15283.58</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16318.43</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15398.11</v>
-      </c>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>3395.64</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3392.87</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3383.32</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3368.34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3342.06</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3452.38</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3406.79</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3345.15</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>13753.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>16925.58</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13130.21</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17294.17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19185.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19053.96</v>
-      </c>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>19056.16</v>
+        <v>2306.85</v>
       </c>
       <c r="I17" t="n">
-        <v>18884.24</v>
+        <v>2404.68</v>
       </c>
       <c r="J17" t="n">
-        <v>20635.33</v>
+        <v>2370.28</v>
       </c>
       <c r="K17" t="n">
-        <v>22723.13</v>
+        <v>2378.9</v>
       </c>
       <c r="L17" t="n">
-        <v>22790.35</v>
+        <v>2322.89</v>
       </c>
       <c r="M17" t="n">
-        <v>22684.32</v>
-      </c>
+        <v>2402.34</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2358.92</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2349.28</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Delta Acciones</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>555.91</v>
+      </c>
+      <c r="C18" t="n">
+        <v>565.9299999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>546.61</v>
+      </c>
+      <c r="E18" t="n">
+        <v>578.4400000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>580.92</v>
+      </c>
+      <c r="G18" t="n">
+        <v>574.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2061.69</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2015.71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2036.14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1976.59</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1982.51</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2052.54</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2044.71</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2007.16</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Delta Internacional</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>45.24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>45.73</v>
+      </c>
+      <c r="F19" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>102.23</v>
+      </c>
+      <c r="I19" t="n">
+        <v>104.09</v>
+      </c>
+      <c r="J19" t="n">
+        <v>106.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>103.74</v>
+      </c>
+      <c r="L19" t="n">
+        <v>103.37</v>
+      </c>
+      <c r="M19" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>105.56</v>
+      </c>
+      <c r="O19" t="n">
+        <v>104.35</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latinoamerica</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>82.16</v>
+      </c>
+      <c r="C20" t="n">
+        <v>82.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>78.94</v>
+      </c>
+      <c r="E20" t="n">
+        <v>82.84</v>
+      </c>
+      <c r="F20" t="n">
+        <v>85.38</v>
+      </c>
+      <c r="G20" t="n">
+        <v>83.45999999999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>181.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>188.12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>190.82</v>
+      </c>
+      <c r="K20" t="n">
+        <v>186.12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>186.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>191.32</v>
+      </c>
+      <c r="N20" t="n">
+        <v>191.17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>188.06</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7537.65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7543.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7230.76</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7563.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7866.82</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7677.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16570.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16375.81</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16490.22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16178.59</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16086.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16671.55</v>
+      </c>
+      <c r="N21" t="n">
+        <v>16516.27</v>
+      </c>
+      <c r="O21" t="n">
+        <v>16307.35</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>93270.58</v>
+      </c>
+      <c r="C22" t="n">
+        <v>93281.36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>101161.24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>108543.44</v>
+      </c>
+      <c r="F22" t="n">
+        <v>112011.66</v>
+      </c>
+      <c r="G22" t="n">
+        <v>107574.56</v>
+      </c>
+      <c r="H22" t="n">
+        <v>108013</v>
+      </c>
+      <c r="I22" t="n">
+        <v>106259.62</v>
+      </c>
+      <c r="J22" t="n">
+        <v>112648.02</v>
+      </c>
+      <c r="K22" t="n">
+        <v>111036.48</v>
+      </c>
+      <c r="L22" t="n">
+        <v>109638.58</v>
+      </c>
+      <c r="M22" t="n">
+        <v>113073.74</v>
+      </c>
+      <c r="N22" t="n">
+        <v>86326.64999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>80224.41</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>5120.19</v>
+      </c>
+      <c r="I23" t="n">
+        <v>444.27</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>4832.36</v>
+      </c>
+      <c r="I24" t="n">
+        <v>411.99</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Gainvest Renta Variable</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>473.49</v>
+      </c>
+      <c r="I25" t="n">
+        <v>280.38</v>
+      </c>
+      <c r="J25" t="n">
+        <v>284.27</v>
+      </c>
+      <c r="K25" t="n">
+        <v>275.73</v>
+      </c>
+      <c r="L25" t="n">
+        <v>277.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="N25" t="n">
+        <v>279.29</v>
+      </c>
+      <c r="O25" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Goal Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>663.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>686.0599999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>691.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>678.47</v>
+      </c>
+      <c r="L26" t="n">
+        <v>669.9</v>
+      </c>
+      <c r="M26" t="n">
+        <v>706.38</v>
+      </c>
+      <c r="N26" t="n">
+        <v>695.99</v>
+      </c>
+      <c r="O26" t="n">
+        <v>679.24</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>165.65</v>
+      </c>
+      <c r="J27" t="n">
+        <v>166.33</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1851.45</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3088.71</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>533.27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>523.28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>543.76</v>
+      </c>
+      <c r="F29" t="n">
+        <v>566.4400000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>533.46</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4109.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>IAM Renta Variable</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>731.05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>IEB Value</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>89.56999999999999</v>
+      </c>
+      <c r="J31" t="n">
+        <v>122.27</v>
+      </c>
+      <c r="K31" t="n">
+        <v>118.83</v>
+      </c>
+      <c r="L31" t="n">
+        <v>119.51</v>
+      </c>
+      <c r="M31" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="N31" t="n">
+        <v>121.55</v>
+      </c>
+      <c r="O31" t="n">
+        <v>120.96</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>221.94</v>
+      </c>
+      <c r="C33" t="n">
+        <v>223.09</v>
+      </c>
+      <c r="D33" t="n">
+        <v>215.39</v>
+      </c>
+      <c r="E33" t="n">
+        <v>225.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>233.22</v>
+      </c>
+      <c r="G33" t="n">
+        <v>227.12</v>
+      </c>
+      <c r="H33" t="n">
+        <v>878.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>879.71</v>
+      </c>
+      <c r="J33" t="n">
+        <v>862</v>
+      </c>
+      <c r="K33" t="n">
+        <v>863.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>845.52</v>
+      </c>
+      <c r="M33" t="n">
+        <v>875.23</v>
+      </c>
+      <c r="N33" t="n">
+        <v>865.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>852.39</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Megainver</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>556.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Pellegrini Acciones</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>2427.85</v>
+      </c>
+      <c r="I35" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Pionero Acciones</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>4215.02</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4476.33</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4525.85</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4474.52</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4377.07</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4567.26</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4474.54</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4387.31</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1338.59</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Quinquela Acciones</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>1979.58</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SBS Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>1296.37</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>7648.18</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>3474.64</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>694.89</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>542.92</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>22684.32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>22444.59</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22710.16</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22125.27</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25017.09</v>
+      </c>
+      <c r="G44" t="n">
+        <v>22395.31</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10214.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8481.290000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12433.58</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12960.38</v>
+      </c>
+      <c r="L44" t="n">
+        <v>12793.36</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13976.81</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12850.32</v>
+      </c>
+      <c r="O44" t="n">
+        <v>12449.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5084.29</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5259.67</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5215.87</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4902.29</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4873.04</v>
+      </c>
+      <c r="U44" t="n">
+        <v>4921.05</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4765.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4923.16</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4892.53</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>5146.2</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4841.3</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4845.14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>192546.23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>169255.83</v>
-      </c>
-      <c r="D18" t="n">
-        <v>196953.16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>242118.31</v>
-      </c>
-      <c r="F18" t="n">
-        <v>268597.02</v>
-      </c>
-      <c r="G18" t="n">
-        <v>247701.43</v>
-      </c>
-      <c r="H18" t="n">
-        <v>247730.02</v>
-      </c>
-      <c r="I18" t="n">
-        <v>245495.15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>247623.99</v>
-      </c>
-      <c r="K18" t="n">
-        <v>249954.48</v>
-      </c>
-      <c r="L18" t="n">
-        <v>250693.87</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="B45" t="n">
         <v>249527.49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>246890.49</v>
+      </c>
+      <c r="D45" t="n">
+        <v>249811.72</v>
+      </c>
+      <c r="E45" t="n">
+        <v>265503.26</v>
+      </c>
+      <c r="F45" t="n">
+        <v>275187.99</v>
+      </c>
+      <c r="G45" t="n">
+        <v>268743.68</v>
+      </c>
+      <c r="H45" t="n">
+        <v>337085.19</v>
+      </c>
+      <c r="I45" t="n">
+        <v>313807.57</v>
+      </c>
+      <c r="J45" t="n">
+        <v>323272.98</v>
+      </c>
+      <c r="K45" t="n">
+        <v>336969.94</v>
+      </c>
+      <c r="L45" t="n">
+        <v>332627.34</v>
+      </c>
+      <c r="M45" t="n">
+        <v>349420.17</v>
+      </c>
+      <c r="N45" t="n">
+        <v>321258.01</v>
+      </c>
+      <c r="O45" t="n">
+        <v>311234.01</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5084.29</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5259.67</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5215.87</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4902.29</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4873.04</v>
+      </c>
+      <c r="U45" t="n">
+        <v>4921.05</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4765.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4923.16</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4892.53</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>5146.2</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>4841.3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4845.14</v>
       </c>
     </row>
   </sheetData>
